--- a/public/data/policies.xlsx
+++ b/public/data/policies.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="165" windowWidth="27795" windowHeight="14055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3646,25 +3651,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" customWidth="1"/>
+    <col min="14" max="14" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="16" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1049</v>
       </c>
@@ -3703,7 +3708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16" thickTop="1" thickBot="1">
       <c r="A2" t="s">
         <v>1050</v>
       </c>
@@ -3742,7 +3747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="16" thickTop="1" thickBot="1">
       <c r="A3" t="s">
         <v>1054</v>
       </c>
@@ -3781,7 +3786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16" thickTop="1" thickBot="1">
       <c r="A4" t="s">
         <v>1054</v>
       </c>
@@ -3820,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15" thickTop="1">
       <c r="A5" t="s">
         <v>1053</v>
       </c>
@@ -3852,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>1050</v>
       </c>
@@ -3884,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>1052</v>
       </c>
@@ -3916,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>1054</v>
       </c>
@@ -3948,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>1052</v>
       </c>
@@ -3980,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>1054</v>
       </c>
@@ -4012,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>1050</v>
       </c>
@@ -4044,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>1050</v>
       </c>
@@ -4076,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>1050</v>
       </c>
@@ -4108,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>1050</v>
       </c>
@@ -4140,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>1054</v>
       </c>
@@ -4172,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>1054</v>
       </c>
@@ -4204,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>1050</v>
       </c>
@@ -4236,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>1052</v>
       </c>
@@ -4268,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>1052</v>
       </c>
@@ -4300,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>1051</v>
       </c>
@@ -4332,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>1052</v>
       </c>
@@ -4364,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>1054</v>
       </c>
@@ -4396,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="B23" t="s">
         <v>67</v>
       </c>
@@ -4425,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="B24" t="s">
         <v>70</v>
       </c>
@@ -4454,7 +4459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="B25" t="s">
         <v>73</v>
       </c>
@@ -4483,7 +4488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="B26" t="s">
         <v>76</v>
       </c>
@@ -4512,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="B27" t="s">
         <v>79</v>
       </c>
@@ -4541,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="B28" t="s">
         <v>83</v>
       </c>
@@ -4570,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="B29" t="s">
         <v>86</v>
       </c>
@@ -4599,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>89</v>
       </c>
@@ -4628,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="B31" t="s">
         <v>92</v>
       </c>
@@ -4657,7 +4662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="B32" t="s">
         <v>95</v>
       </c>
@@ -4686,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13">
       <c r="B33" t="s">
         <v>98</v>
       </c>
@@ -4715,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13">
       <c r="B34" t="s">
         <v>101</v>
       </c>
@@ -4744,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13">
       <c r="B35" t="s">
         <v>104</v>
       </c>
@@ -4773,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13">
       <c r="B36" t="s">
         <v>107</v>
       </c>
@@ -4802,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13">
       <c r="B37" t="s">
         <v>110</v>
       </c>
@@ -4831,7 +4836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13">
       <c r="B38" t="s">
         <v>113</v>
       </c>
@@ -4860,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13">
       <c r="B39" t="s">
         <v>116</v>
       </c>
@@ -4889,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13">
       <c r="B40" t="s">
         <v>119</v>
       </c>
@@ -4918,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13">
       <c r="B41" t="s">
         <v>122</v>
       </c>
@@ -4947,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13">
       <c r="B42" t="s">
         <v>125</v>
       </c>
@@ -4976,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13">
       <c r="B43" t="s">
         <v>128</v>
       </c>
@@ -5005,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13">
       <c r="B44" t="s">
         <v>131</v>
       </c>
@@ -5034,7 +5039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13">
       <c r="B45" t="s">
         <v>134</v>
       </c>
@@ -5063,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13">
       <c r="B46" t="s">
         <v>137</v>
       </c>
@@ -5092,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13">
       <c r="B47" t="s">
         <v>140</v>
       </c>
@@ -5121,7 +5126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13">
       <c r="B48" t="s">
         <v>143</v>
       </c>
@@ -5150,7 +5155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13">
       <c r="B49" t="s">
         <v>146</v>
       </c>
@@ -5179,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13">
       <c r="B50" t="s">
         <v>149</v>
       </c>
@@ -5208,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13">
       <c r="B51" t="s">
         <v>152</v>
       </c>
@@ -5237,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13">
       <c r="B52" t="s">
         <v>155</v>
       </c>
@@ -5266,7 +5271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13">
       <c r="B53" t="s">
         <v>158</v>
       </c>
@@ -5295,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13">
       <c r="B54" t="s">
         <v>161</v>
       </c>
@@ -5324,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13">
       <c r="B55" t="s">
         <v>164</v>
       </c>
@@ -5353,7 +5358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13">
       <c r="B56" t="s">
         <v>167</v>
       </c>
@@ -5382,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13">
       <c r="B57" t="s">
         <v>170</v>
       </c>
@@ -5411,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13">
       <c r="B58" t="s">
         <v>173</v>
       </c>
@@ -5440,7 +5445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13">
       <c r="B59" t="s">
         <v>176</v>
       </c>
@@ -5469,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13">
       <c r="B60" t="s">
         <v>179</v>
       </c>
@@ -5498,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13">
       <c r="B61" t="s">
         <v>182</v>
       </c>
@@ -5527,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13">
       <c r="B62" t="s">
         <v>185</v>
       </c>
@@ -5556,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13">
       <c r="B63" t="s">
         <v>188</v>
       </c>
@@ -5585,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13">
       <c r="B64" t="s">
         <v>191</v>
       </c>
@@ -5614,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13">
       <c r="B65" t="s">
         <v>194</v>
       </c>
@@ -5643,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13">
       <c r="B66" t="s">
         <v>197</v>
       </c>
@@ -5672,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13">
       <c r="B67" t="s">
         <v>200</v>
       </c>
@@ -5701,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13">
       <c r="B68" t="s">
         <v>203</v>
       </c>
@@ -5730,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13">
       <c r="B69" t="s">
         <v>206</v>
       </c>
@@ -5759,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13">
       <c r="B70" t="s">
         <v>209</v>
       </c>
@@ -5788,7 +5793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13">
       <c r="B71" t="s">
         <v>212</v>
       </c>
@@ -5817,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13">
       <c r="B72" t="s">
         <v>215</v>
       </c>
@@ -5846,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13">
       <c r="B73" t="s">
         <v>218</v>
       </c>
@@ -5875,7 +5880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13">
       <c r="B74" t="s">
         <v>221</v>
       </c>
@@ -5904,7 +5909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13">
       <c r="B75" t="s">
         <v>224</v>
       </c>
@@ -5933,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13">
       <c r="B76" t="s">
         <v>227</v>
       </c>
@@ -5962,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13">
       <c r="B77" t="s">
         <v>230</v>
       </c>
@@ -5991,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13">
       <c r="B78" t="s">
         <v>233</v>
       </c>
@@ -6020,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13">
       <c r="B79" t="s">
         <v>236</v>
       </c>
@@ -6049,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13">
       <c r="B80" t="s">
         <v>239</v>
       </c>
@@ -6078,7 +6083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13">
       <c r="B81" t="s">
         <v>242</v>
       </c>
@@ -6107,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13">
       <c r="B82" t="s">
         <v>245</v>
       </c>
@@ -6136,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13">
       <c r="B83" t="s">
         <v>248</v>
       </c>
@@ -6165,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13">
       <c r="B84" t="s">
         <v>251</v>
       </c>
@@ -6194,7 +6199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13">
       <c r="B85" t="s">
         <v>254</v>
       </c>
@@ -6223,7 +6228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13">
       <c r="B86" t="s">
         <v>257</v>
       </c>
@@ -6252,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13">
       <c r="B87" t="s">
         <v>260</v>
       </c>
@@ -6281,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13">
       <c r="B88" t="s">
         <v>263</v>
       </c>
@@ -6310,7 +6315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13">
       <c r="B89" t="s">
         <v>266</v>
       </c>
@@ -6339,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13">
       <c r="B90" t="s">
         <v>269</v>
       </c>
@@ -6368,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13">
       <c r="B91" t="s">
         <v>272</v>
       </c>
@@ -6397,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13">
       <c r="B92" t="s">
         <v>275</v>
       </c>
@@ -6426,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13">
       <c r="B93" t="s">
         <v>278</v>
       </c>
@@ -6455,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:13">
       <c r="B94" t="s">
         <v>281</v>
       </c>
@@ -6484,7 +6489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13">
       <c r="B95" t="s">
         <v>284</v>
       </c>
@@ -6513,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13">
       <c r="B96" s="4" t="s">
         <v>287</v>
       </c>
@@ -6542,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:13">
       <c r="B97" t="s">
         <v>290</v>
       </c>
@@ -6571,7 +6576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:13">
       <c r="B98" t="s">
         <v>293</v>
       </c>
@@ -6588,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13">
       <c r="B99" t="s">
         <v>296</v>
       </c>
@@ -6605,7 +6610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13">
       <c r="B100" t="s">
         <v>299</v>
       </c>
@@ -6622,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13">
       <c r="B101" t="s">
         <v>302</v>
       </c>
@@ -6639,7 +6644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13">
       <c r="B102" t="s">
         <v>305</v>
       </c>
@@ -6656,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:13">
       <c r="B103" t="s">
         <v>308</v>
       </c>
@@ -6673,7 +6678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:13">
       <c r="B104" t="s">
         <v>311</v>
       </c>
@@ -6690,7 +6695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13">
       <c r="B105" t="s">
         <v>314</v>
       </c>
@@ -6707,7 +6712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:13">
       <c r="B106" t="s">
         <v>317</v>
       </c>
@@ -6724,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13">
       <c r="B107" t="s">
         <v>320</v>
       </c>
@@ -6741,7 +6746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:13">
       <c r="B108" t="s">
         <v>323</v>
       </c>
@@ -6758,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13">
       <c r="B109" t="s">
         <v>326</v>
       </c>
@@ -6775,7 +6780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:13">
       <c r="B110" t="s">
         <v>329</v>
       </c>
@@ -6792,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13">
       <c r="B111" t="s">
         <v>332</v>
       </c>
@@ -6809,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:13">
       <c r="B112" t="s">
         <v>335</v>
       </c>
@@ -6826,7 +6831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13">
       <c r="B113" t="s">
         <v>338</v>
       </c>
@@ -6843,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13">
       <c r="B114" t="s">
         <v>341</v>
       </c>
@@ -6860,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13">
       <c r="B115" t="s">
         <v>344</v>
       </c>
@@ -6877,7 +6882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13">
       <c r="B116" t="s">
         <v>347</v>
       </c>
@@ -6894,7 +6899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:13">
       <c r="B117" t="s">
         <v>350</v>
       </c>
@@ -6911,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13">
       <c r="B118" t="s">
         <v>353</v>
       </c>
@@ -6928,7 +6933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13">
       <c r="B119" t="s">
         <v>356</v>
       </c>
@@ -6945,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13">
       <c r="B120" t="s">
         <v>359</v>
       </c>
@@ -6962,7 +6967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13">
       <c r="B121" t="s">
         <v>362</v>
       </c>
@@ -6979,7 +6984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13">
       <c r="B122" t="s">
         <v>365</v>
       </c>
@@ -6996,7 +7001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:13">
       <c r="B123" t="s">
         <v>368</v>
       </c>
@@ -7013,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:13">
       <c r="B124" t="s">
         <v>371</v>
       </c>
@@ -7030,7 +7035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13">
       <c r="B125" t="s">
         <v>374</v>
       </c>
@@ -7047,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13">
       <c r="B126" t="s">
         <v>377</v>
       </c>
@@ -7064,7 +7069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13">
       <c r="B127" t="s">
         <v>380</v>
       </c>
@@ -7081,7 +7086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13">
       <c r="B128" t="s">
         <v>383</v>
       </c>
@@ -7098,7 +7103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13">
       <c r="B129" t="s">
         <v>386</v>
       </c>
@@ -7115,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13">
       <c r="B130" t="s">
         <v>389</v>
       </c>
@@ -7132,7 +7137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13">
       <c r="B131" t="s">
         <v>392</v>
       </c>
@@ -7149,7 +7154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13">
       <c r="B132" t="s">
         <v>395</v>
       </c>
@@ -7166,7 +7171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13">
       <c r="B133" t="s">
         <v>398</v>
       </c>
@@ -7183,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13">
       <c r="B134" t="s">
         <v>401</v>
       </c>
@@ -7200,7 +7205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13">
       <c r="B135" t="s">
         <v>404</v>
       </c>
@@ -7217,7 +7222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13">
       <c r="B136" t="s">
         <v>407</v>
       </c>
@@ -7234,7 +7239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13">
       <c r="B137" t="s">
         <v>410</v>
       </c>
@@ -7251,7 +7256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13">
       <c r="B138" t="s">
         <v>413</v>
       </c>
@@ -7268,7 +7273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13">
       <c r="B139" t="s">
         <v>416</v>
       </c>
@@ -7285,7 +7290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13">
       <c r="B140" t="s">
         <v>419</v>
       </c>
@@ -7302,7 +7307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13">
       <c r="B141" t="s">
         <v>422</v>
       </c>
@@ -7319,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13">
       <c r="B142" t="s">
         <v>425</v>
       </c>
@@ -7336,7 +7341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13">
       <c r="B143" t="s">
         <v>428</v>
       </c>
@@ -7353,7 +7358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13">
       <c r="B144" t="s">
         <v>431</v>
       </c>
@@ -7370,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:13">
       <c r="B145" t="s">
         <v>434</v>
       </c>
@@ -7387,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13">
       <c r="B146" t="s">
         <v>437</v>
       </c>
@@ -7404,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13">
       <c r="B147" t="s">
         <v>440</v>
       </c>
@@ -7421,7 +7426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13">
       <c r="B148" t="s">
         <v>443</v>
       </c>
@@ -7438,7 +7443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13">
       <c r="B149" t="s">
         <v>446</v>
       </c>
@@ -7455,7 +7460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13">
       <c r="B150" t="s">
         <v>449</v>
       </c>
@@ -7472,7 +7477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13">
       <c r="B151" t="s">
         <v>452</v>
       </c>
@@ -7489,7 +7494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13">
       <c r="B152" t="s">
         <v>455</v>
       </c>
@@ -7506,7 +7511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:13">
       <c r="B153" t="s">
         <v>458</v>
       </c>
@@ -7523,7 +7528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:13">
       <c r="B154" t="s">
         <v>461</v>
       </c>
@@ -7540,7 +7545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:13">
       <c r="B155" t="s">
         <v>464</v>
       </c>
@@ -7557,7 +7562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13">
       <c r="B156" t="s">
         <v>467</v>
       </c>
@@ -7574,7 +7579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13">
       <c r="B157" t="s">
         <v>470</v>
       </c>
@@ -7591,7 +7596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13">
       <c r="B158" t="s">
         <v>473</v>
       </c>
@@ -7608,7 +7613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:13">
       <c r="B159" t="s">
         <v>476</v>
       </c>
@@ -7625,7 +7630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13">
       <c r="B160" t="s">
         <v>479</v>
       </c>
@@ -7642,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:13">
       <c r="B161" t="s">
         <v>482</v>
       </c>
@@ -7659,7 +7664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:13">
       <c r="B162" t="s">
         <v>485</v>
       </c>
@@ -7676,7 +7681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13">
       <c r="B163" t="s">
         <v>488</v>
       </c>
@@ -7693,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:13">
       <c r="B164" t="s">
         <v>491</v>
       </c>
@@ -7710,7 +7715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13">
       <c r="B165" t="s">
         <v>495</v>
       </c>
@@ -7727,7 +7732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13">
       <c r="B166" t="s">
         <v>498</v>
       </c>
@@ -7744,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13">
       <c r="B167" t="s">
         <v>501</v>
       </c>
@@ -7761,7 +7766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13">
       <c r="B168" t="s">
         <v>504</v>
       </c>
@@ -7778,7 +7783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:13">
       <c r="B169" t="s">
         <v>507</v>
       </c>
@@ -7795,7 +7800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:13">
       <c r="B170" t="s">
         <v>510</v>
       </c>
@@ -7812,7 +7817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:13">
       <c r="B171" t="s">
         <v>513</v>
       </c>
@@ -7829,7 +7834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:13">
       <c r="B172" t="s">
         <v>516</v>
       </c>
@@ -7846,7 +7851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:13">
       <c r="B173" t="s">
         <v>519</v>
       </c>
@@ -7863,7 +7868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13">
       <c r="B174" t="s">
         <v>522</v>
       </c>
@@ -7880,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:13">
       <c r="B175" t="s">
         <v>525</v>
       </c>
@@ -7897,7 +7902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13">
       <c r="B176" t="s">
         <v>528</v>
       </c>
@@ -7914,7 +7919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:13">
       <c r="B177" t="s">
         <v>531</v>
       </c>
@@ -7931,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:13">
       <c r="B178" t="s">
         <v>534</v>
       </c>
@@ -7948,7 +7953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:13">
       <c r="B179" t="s">
         <v>537</v>
       </c>
@@ -7965,7 +7970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:13">
       <c r="B180" t="s">
         <v>540</v>
       </c>
@@ -7982,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:13">
       <c r="B181" t="s">
         <v>543</v>
       </c>
@@ -7999,7 +8004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:13">
       <c r="B182" t="s">
         <v>546</v>
       </c>
@@ -8016,7 +8021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:13">
       <c r="B183" t="s">
         <v>549</v>
       </c>
@@ -8033,7 +8038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:13">
       <c r="B184" t="s">
         <v>552</v>
       </c>
@@ -8050,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:13">
       <c r="B185" t="s">
         <v>554</v>
       </c>
@@ -8067,7 +8072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:13">
       <c r="B186" t="s">
         <v>557</v>
       </c>
@@ -8084,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:13">
       <c r="B187" t="s">
         <v>560</v>
       </c>
@@ -8101,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:13">
       <c r="B188" t="s">
         <v>563</v>
       </c>
@@ -8118,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:13">
       <c r="B189" t="s">
         <v>566</v>
       </c>
@@ -8135,7 +8140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:13">
       <c r="B190" t="s">
         <v>569</v>
       </c>
@@ -8152,7 +8157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:13">
       <c r="B191" t="s">
         <v>572</v>
       </c>
@@ -8169,7 +8174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:13">
       <c r="B192" t="s">
         <v>575</v>
       </c>
@@ -8186,7 +8191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:13">
       <c r="B193" t="s">
         <v>578</v>
       </c>
@@ -8203,7 +8208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:13">
       <c r="B194" t="s">
         <v>581</v>
       </c>
@@ -8220,7 +8225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:13">
       <c r="B195" t="s">
         <v>584</v>
       </c>
@@ -8237,7 +8242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:13">
       <c r="B196" t="s">
         <v>587</v>
       </c>
@@ -8254,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:13">
       <c r="B197" t="s">
         <v>590</v>
       </c>
@@ -8271,7 +8276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:13">
       <c r="B198" t="s">
         <v>593</v>
       </c>
@@ -8288,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:13">
       <c r="B199" t="s">
         <v>596</v>
       </c>
@@ -8305,7 +8310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:13">
       <c r="B200" t="s">
         <v>599</v>
       </c>
@@ -8322,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:13">
       <c r="B201" t="s">
         <v>602</v>
       </c>
@@ -8339,7 +8344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:13">
       <c r="B202" t="s">
         <v>605</v>
       </c>
@@ -8356,7 +8361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:13">
       <c r="B203" t="s">
         <v>608</v>
       </c>
@@ -8373,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:13">
       <c r="B204" t="s">
         <v>611</v>
       </c>
@@ -8390,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:13">
       <c r="B205" t="s">
         <v>614</v>
       </c>
@@ -8407,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:13">
       <c r="B206" t="s">
         <v>617</v>
       </c>
@@ -8424,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:13">
       <c r="B207" t="s">
         <v>620</v>
       </c>
@@ -8441,7 +8446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:13">
       <c r="B208" t="s">
         <v>623</v>
       </c>
@@ -8458,7 +8463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:13">
       <c r="B209" t="s">
         <v>626</v>
       </c>
@@ -8475,7 +8480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:13">
       <c r="B210" t="s">
         <v>629</v>
       </c>
@@ -8492,7 +8497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:13">
       <c r="B211" t="s">
         <v>633</v>
       </c>
@@ -8509,7 +8514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:13">
       <c r="B212" t="s">
         <v>636</v>
       </c>
@@ -8526,7 +8531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:13">
       <c r="B213" t="s">
         <v>639</v>
       </c>
@@ -8543,7 +8548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:13">
       <c r="B214" t="s">
         <v>642</v>
       </c>
@@ -8560,7 +8565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:13">
       <c r="B215" t="s">
         <v>645</v>
       </c>
@@ -8577,7 +8582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:13">
       <c r="B216" t="s">
         <v>648</v>
       </c>
@@ -8594,7 +8599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:13">
       <c r="B217" t="s">
         <v>651</v>
       </c>
@@ -8611,7 +8616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:13">
       <c r="B218" t="s">
         <v>654</v>
       </c>
@@ -8628,7 +8633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:13">
       <c r="B219" t="s">
         <v>657</v>
       </c>
@@ -8645,7 +8650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:13">
       <c r="B220" t="s">
         <v>660</v>
       </c>
@@ -8662,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:13">
       <c r="B221" t="s">
         <v>663</v>
       </c>
@@ -8679,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:13">
       <c r="B222" t="s">
         <v>666</v>
       </c>
@@ -8696,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:13">
       <c r="B223" t="s">
         <v>669</v>
       </c>
@@ -8713,7 +8718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:13">
       <c r="B224" t="s">
         <v>672</v>
       </c>
@@ -8730,7 +8735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:13">
       <c r="B225" t="s">
         <v>675</v>
       </c>
@@ -8747,7 +8752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:13">
       <c r="B226" t="s">
         <v>678</v>
       </c>
@@ -8764,7 +8769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:13">
       <c r="B227" t="s">
         <v>681</v>
       </c>
@@ -8781,7 +8786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:13">
       <c r="B228" t="s">
         <v>684</v>
       </c>
@@ -8798,7 +8803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:13">
       <c r="B229" t="s">
         <v>687</v>
       </c>
@@ -8815,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:13">
       <c r="B230" t="s">
         <v>690</v>
       </c>
@@ -8832,7 +8837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:13">
       <c r="B231" t="s">
         <v>693</v>
       </c>
@@ -8849,7 +8854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:13">
       <c r="B232" t="s">
         <v>696</v>
       </c>
@@ -8866,7 +8871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:13">
       <c r="B233" t="s">
         <v>699</v>
       </c>
@@ -8883,7 +8888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:13">
       <c r="B234" t="s">
         <v>702</v>
       </c>
@@ -8900,7 +8905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:13">
       <c r="B235" t="s">
         <v>705</v>
       </c>
@@ -8917,7 +8922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:13">
       <c r="B236" t="s">
         <v>708</v>
       </c>
@@ -8934,7 +8939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:13">
       <c r="B237" t="s">
         <v>711</v>
       </c>
@@ -8951,7 +8956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:13">
       <c r="B238" t="s">
         <v>714</v>
       </c>
@@ -8968,7 +8973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:13">
       <c r="B239" t="s">
         <v>717</v>
       </c>
@@ -8985,7 +8990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:13">
       <c r="B240" t="s">
         <v>720</v>
       </c>
@@ -9002,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:13">
       <c r="B241" t="s">
         <v>723</v>
       </c>
@@ -9019,7 +9024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:13">
       <c r="B242" t="s">
         <v>726</v>
       </c>
@@ -9036,7 +9041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:13">
       <c r="B243" t="s">
         <v>729</v>
       </c>
@@ -9053,7 +9058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:13">
       <c r="B244" t="s">
         <v>732</v>
       </c>
@@ -9070,7 +9075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:13">
       <c r="B245" t="s">
         <v>735</v>
       </c>
@@ -9087,7 +9092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:13">
       <c r="B246" t="s">
         <v>738</v>
       </c>
@@ -9104,7 +9109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:13">
       <c r="B247" t="s">
         <v>741</v>
       </c>
@@ -9121,7 +9126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:13">
       <c r="B248" t="s">
         <v>744</v>
       </c>
@@ -9138,7 +9143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:13">
       <c r="B249" t="s">
         <v>747</v>
       </c>
@@ -9155,7 +9160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:13">
       <c r="B250" t="s">
         <v>750</v>
       </c>
@@ -9172,7 +9177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:13">
       <c r="B251" t="s">
         <v>753</v>
       </c>
@@ -9189,7 +9194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:13">
       <c r="B252" t="s">
         <v>756</v>
       </c>
@@ -9206,7 +9211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:13">
       <c r="B253" t="s">
         <v>759</v>
       </c>
@@ -9223,7 +9228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:13">
       <c r="B254" t="s">
         <v>762</v>
       </c>
@@ -9240,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:13">
       <c r="B255" t="s">
         <v>765</v>
       </c>
@@ -9257,7 +9262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:13">
       <c r="B256" t="s">
         <v>768</v>
       </c>
@@ -9274,7 +9279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:13">
       <c r="B257" t="s">
         <v>771</v>
       </c>
@@ -9291,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:13">
       <c r="B258" t="s">
         <v>774</v>
       </c>
@@ -9308,7 +9313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:13">
       <c r="B259" t="s">
         <v>777</v>
       </c>
@@ -9325,7 +9330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:13">
       <c r="B260" t="s">
         <v>780</v>
       </c>
@@ -9342,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:13">
       <c r="B261" t="s">
         <v>783</v>
       </c>
@@ -9359,7 +9364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:13">
       <c r="B262" t="s">
         <v>786</v>
       </c>
@@ -9376,7 +9381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:13">
       <c r="B263" t="s">
         <v>789</v>
       </c>
@@ -9393,7 +9398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:13">
       <c r="B264" t="s">
         <v>792</v>
       </c>
@@ -9410,7 +9415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:13">
       <c r="B265" t="s">
         <v>795</v>
       </c>
@@ -9427,7 +9432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:13">
       <c r="B266" t="s">
         <v>798</v>
       </c>
@@ -9444,7 +9449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:13">
       <c r="B267" t="s">
         <v>801</v>
       </c>
@@ -9461,7 +9466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:13">
       <c r="B268" t="s">
         <v>804</v>
       </c>
@@ -9478,7 +9483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:13">
       <c r="B269" t="s">
         <v>807</v>
       </c>
@@ -9495,7 +9500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:13">
       <c r="B270" t="s">
         <v>810</v>
       </c>
@@ -9512,7 +9517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:13">
       <c r="B271" t="s">
         <v>813</v>
       </c>
@@ -9529,7 +9534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:13">
       <c r="B272" t="s">
         <v>816</v>
       </c>
@@ -9546,7 +9551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:13">
       <c r="B273" t="s">
         <v>819</v>
       </c>
@@ -9563,7 +9568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:13">
       <c r="B274" t="s">
         <v>822</v>
       </c>
@@ -9580,7 +9585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:13">
       <c r="B275" t="s">
         <v>825</v>
       </c>
@@ -9597,7 +9602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:13">
       <c r="B276" t="s">
         <v>828</v>
       </c>
@@ -9614,7 +9619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:13">
       <c r="B277" t="s">
         <v>831</v>
       </c>
@@ -9631,7 +9636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:13">
       <c r="B278" t="s">
         <v>834</v>
       </c>
@@ -9648,7 +9653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:13">
       <c r="B279" t="s">
         <v>837</v>
       </c>
@@ -9665,7 +9670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:13">
       <c r="B280" t="s">
         <v>840</v>
       </c>
@@ -9682,7 +9687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:13">
       <c r="B281" t="s">
         <v>843</v>
       </c>
@@ -9699,7 +9704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:13">
       <c r="B282" t="s">
         <v>846</v>
       </c>
@@ -9716,7 +9721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:13">
       <c r="B283" t="s">
         <v>849</v>
       </c>
@@ -9733,7 +9738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:13">
       <c r="B284" t="s">
         <v>852</v>
       </c>
@@ -9750,7 +9755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:13">
       <c r="B285" t="s">
         <v>855</v>
       </c>
@@ -9767,7 +9772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:13">
       <c r="B286" t="s">
         <v>858</v>
       </c>
@@ -9784,7 +9789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:13">
       <c r="B287" t="s">
         <v>861</v>
       </c>
@@ -9801,7 +9806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:13">
       <c r="B288" t="s">
         <v>864</v>
       </c>
@@ -9818,7 +9823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:13">
       <c r="B289" t="s">
         <v>867</v>
       </c>
@@ -9835,7 +9840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:13">
       <c r="B290" t="s">
         <v>611</v>
       </c>
@@ -9852,7 +9857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:13">
       <c r="B291" t="s">
         <v>872</v>
       </c>
@@ -9869,7 +9874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:13">
       <c r="B292" t="s">
         <v>875</v>
       </c>
@@ -9886,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:13">
       <c r="B293" t="s">
         <v>878</v>
       </c>
@@ -9903,7 +9908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:13">
       <c r="B294" t="s">
         <v>881</v>
       </c>
@@ -9920,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:13">
       <c r="B295" t="s">
         <v>884</v>
       </c>
@@ -9937,7 +9942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:13">
       <c r="B296" t="s">
         <v>887</v>
       </c>
@@ -9954,7 +9959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:13">
       <c r="B297" t="s">
         <v>890</v>
       </c>
@@ -9971,7 +9976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:13">
       <c r="B298" t="s">
         <v>893</v>
       </c>
@@ -9988,7 +9993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:13">
       <c r="B299" t="s">
         <v>896</v>
       </c>
@@ -10005,7 +10010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:13">
       <c r="B300" t="s">
         <v>899</v>
       </c>
@@ -10022,7 +10027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:13">
       <c r="B301" t="s">
         <v>902</v>
       </c>
@@ -10039,7 +10044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:13">
       <c r="B302" t="s">
         <v>905</v>
       </c>
@@ -10056,7 +10061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:13">
       <c r="B303" t="s">
         <v>908</v>
       </c>
@@ -10073,7 +10078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:13">
       <c r="B304" t="s">
         <v>911</v>
       </c>
@@ -10090,7 +10095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:13">
       <c r="B305" t="s">
         <v>914</v>
       </c>
@@ -10114,5 +10119,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>